--- a/ARWR.xlsx
+++ b/ARWR.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E401CC80-CD4A-43BF-BCB3-4298D69EF0C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CA7A7C-EAC3-4400-878C-37DCEB33E051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19320" yWindow="135" windowWidth="31845" windowHeight="20910" xr2:uid="{B959DB67-9C3E-48F5-8A19-73AAE6FD3A4A}"/>
+    <workbookView xWindow="-35445" yWindow="5640" windowWidth="17460" windowHeight="15150" xr2:uid="{B959DB67-9C3E-48F5-8A19-73AAE6FD3A4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="JNJ-3989" sheetId="6" r:id="rId2"/>
     <sheet name="fazirsiran" sheetId="5" r:id="rId3"/>
-    <sheet name="APOC3" sheetId="2" r:id="rId4"/>
-    <sheet name="ANG3" sheetId="3" r:id="rId5"/>
+    <sheet name="plozasiran" sheetId="2" r:id="rId4"/>
+    <sheet name="zodasiran" sheetId="3" r:id="rId5"/>
     <sheet name="RAGE" sheetId="4" r:id="rId6"/>
     <sheet name="olpasiran" sheetId="7" r:id="rId7"/>
   </sheets>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="99">
   <si>
     <t>Price</t>
   </si>
@@ -173,9 +173,6 @@
     <t>Phase IIb "SHASTA-2" severe hypertriglyceridemia</t>
   </si>
   <si>
-    <t>Phase III "PALISADE" - NCT05089084</t>
-  </si>
-  <si>
     <t>ANGPTL3</t>
   </si>
   <si>
@@ -245,9 +242,6 @@
     <t>Licensed to AMGN, sold royalty stake to RPRX</t>
   </si>
   <si>
-    <t>Q322</t>
-  </si>
-  <si>
     <t>JNJ</t>
   </si>
   <si>
@@ -267,12 +261,90 @@
   </si>
   <si>
     <t>Takeda licensed for $300m upfront, US 50-50 and 20-25% Ex-US royalties</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>Obesity</t>
+  </si>
+  <si>
+    <t>ARO-INHBE</t>
+  </si>
+  <si>
+    <t>ARO-ALK7</t>
+  </si>
+  <si>
+    <t>plozasiran</t>
+  </si>
+  <si>
+    <t>CEO: Christopher Anzalone</t>
+  </si>
+  <si>
+    <t>Massive trig lowering</t>
+  </si>
+  <si>
+    <t>Phase III "PALISADE" n=75 - NCT05089084 - NEJM</t>
+  </si>
+  <si>
+    <t>Phase II "MUIR"</t>
+  </si>
+  <si>
+    <t>Phase III "CAPITAN"</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>zodasiran</t>
+  </si>
+  <si>
+    <t>Phase II "ARCHES-2"</t>
+  </si>
+  <si>
+    <t>ARO-TSLP</t>
+  </si>
+  <si>
+    <t>ARO-IAV</t>
+  </si>
+  <si>
+    <t>Influenza A</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Failed?</t>
+  </si>
+  <si>
+    <t>ARO-CFB</t>
+  </si>
+  <si>
+    <t>Complement Factor B</t>
+  </si>
+  <si>
+    <t>ARO-DM1</t>
+  </si>
+  <si>
+    <t>DM1</t>
+  </si>
+  <si>
+    <t>DMPK</t>
+  </si>
+  <si>
+    <t>Nephrology</t>
+  </si>
+  <si>
+    <t>FSMD</t>
+  </si>
+  <si>
+    <t>ARO-SOD1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -410,7 +482,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -420,14 +492,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -435,7 +504,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -448,17 +517,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{26FC61F5-A5C2-4BF4-815B-3DD0C7088B70}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -471,9 +542,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -511,7 +582,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -617,7 +688,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -759,7 +830,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -767,10 +838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9614623B-62D2-470A-BC78-8515B62BAC59}">
-  <dimension ref="B2:M16"/>
+  <dimension ref="B2:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -789,111 +860,111 @@
       <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="14" t="s">
         <v>12</v>
       </c>
       <c r="K2" t="s">
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>32.799999999999997</v>
+        <v>19.670000000000002</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B3" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="19"/>
+      <c r="D3" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="16"/>
       <c r="K3" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="2">
-        <v>106.00572200000001</v>
+        <v>124.315274</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B4" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="12" t="s">
+      <c r="B4" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" s="19"/>
+      <c r="D4" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="16"/>
       <c r="K4" t="s">
         <v>2</v>
       </c>
       <c r="L4" s="2">
         <f>+L2*L3</f>
-        <v>3476.9876816000001</v>
+        <v>2445.2814395800001</v>
       </c>
       <c r="M4" s="3"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B5" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="19"/>
+      <c r="D5" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="16"/>
       <c r="K5" t="s">
         <v>3</v>
       </c>
       <c r="L5" s="2">
-        <f>108.005+268.391+105.872</f>
-        <v>482.26800000000003</v>
+        <f>69.399+367.372</f>
+        <v>436.77100000000002</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18" t="s">
+      <c r="D6" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="19"/>
+      <c r="G6" s="16"/>
       <c r="K6" t="s">
         <v>4</v>
       </c>
@@ -901,156 +972,277 @@
         <v>0</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="19"/>
+      <c r="D7" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
       <c r="K7" t="s">
         <v>5</v>
       </c>
       <c r="L7" s="2">
         <f>+L4-L5+L6</f>
-        <v>2994.7196816000001</v>
+        <v>2008.5104395800001</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="19"/>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="19"/>
+      <c r="D9" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
+      <c r="K9" t="s">
+        <v>78</v>
+      </c>
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="19"/>
+      <c r="D10" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="16"/>
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="19"/>
+        <v>75</v>
+      </c>
+      <c r="C11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="16"/>
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B12" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" s="19"/>
+      <c r="B12" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16"/>
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="19"/>
+        <v>29</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="16"/>
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B14" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="19"/>
+      <c r="B14" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="16"/>
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="16"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B16" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="15"/>
+      <c r="G16" s="16"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B17" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="15"/>
+      <c r="G17" s="16"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B18" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="16"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="16"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B20" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="16"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B21" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="16"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B22" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="15"/>
+      <c r="G22" s="16"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B23" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C23" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="19"/>
-      <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B16" s="8" t="s">
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="16"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B24" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C24" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="21"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="18"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" location="APOC3!A1" display="ARO-APOC3" xr:uid="{5F405809-9D86-4FAF-9EA8-34B15083E7FC}"/>
-    <hyperlink ref="B5" location="'ANG3'!A1" display="ARO-ANG3" xr:uid="{71A05370-C2E8-4389-8066-9C28E7B7136E}"/>
+    <hyperlink ref="B3" location="plozasiran!A1" display="plozasiran" xr:uid="{5F405809-9D86-4FAF-9EA8-34B15083E7FC}"/>
+    <hyperlink ref="B5" location="zodasiran!A1" display="zodasiran" xr:uid="{71A05370-C2E8-4389-8066-9C28E7B7136E}"/>
     <hyperlink ref="B8" location="RAGE!A1" display="ARO-RAGE" xr:uid="{5E4BFACE-D3DD-43D7-8978-113AF0E2F302}"/>
     <hyperlink ref="B4" location="fazirsiran!A1" display="ARO-AAT (fazirsiran)" xr:uid="{05876B12-4436-4999-9834-23517E48B57A}"/>
     <hyperlink ref="B6" location="olpasiran!A1" display="olpasiran" xr:uid="{D265B124-1550-45CA-A7F7-C55FDE4A9356}"/>
@@ -1072,7 +1264,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1081,12 +1273,12 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1094,7 +1286,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1125,7 +1317,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1134,15 +1326,15 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
         <v>56</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1150,15 +1342,15 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" t="s">
         <v>59</v>
-      </c>
-      <c r="C5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1166,7 +1358,7 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1175,28 +1367,28 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C10" s="15" t="s">
-        <v>69</v>
+      <c r="C10" s="12" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C13" s="15" t="s">
-        <v>70</v>
+      <c r="C13" s="12" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C15" s="14" t="s">
-        <v>71</v>
+      <c r="C15" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1209,7 +1401,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF1C757-0497-43B9-8D52-E004ACE8C136}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0"/>
   </sheetViews>
@@ -1220,7 +1412,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1234,33 +1426,56 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C6" s="15" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C8" s="15" t="s">
-        <v>43</v>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C12" s="12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C14" s="12" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1273,7 +1488,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A19C3771-667C-417B-A900-E113F9BD4B9C}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
@@ -1284,7 +1499,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1298,33 +1513,46 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
+        <v>55</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C6" s="15" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9" s="12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C8" s="15" t="s">
-        <v>46</v>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C12" s="12" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1348,7 +1576,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1365,7 +1593,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1374,8 +1602,8 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C5" s="15" t="s">
-        <v>50</v>
+      <c r="C5" s="12" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1399,7 +1627,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1408,12 +1636,12 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
@@ -1432,7 +1660,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1440,7 +1668,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1449,8 +1677,8 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C8" s="15" t="s">
-        <v>65</v>
+      <c r="C8" s="12" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
